--- a/梓桐镇领导名单.xlsx
+++ b/梓桐镇领导名单.xlsx
@@ -186,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -226,6 +226,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -240,120 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -383,13 +383,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +455,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,157 +533,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,15 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -668,6 +659,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -679,6 +694,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +724,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -708,39 +741,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -749,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,16 +761,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,112 +782,112 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,7 +1264,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>

--- a/梓桐镇领导名单.xlsx
+++ b/梓桐镇领导名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>领导信息登记表</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>电话</t>
-  </si>
-  <si>
-    <t>地址</t>
   </si>
   <si>
     <t>西湖村</t>
@@ -187,9 +184,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -219,6 +216,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -226,23 +230,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,69 +282,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,33 +305,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,31 +380,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,151 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,26 +641,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +665,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,15 +711,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,19 +733,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +758,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,7 +1261,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -1312,21 +1309,21 @@
         <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
       <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="12">
         <v>15888810561</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="12">
         <v>13968111161</v>
@@ -1334,16 +1331,16 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:5">
       <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="12">
         <v>18858193953</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="12">
         <v>13867403440</v>
@@ -1351,16 +1348,16 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:5">
       <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="12">
         <v>13806518094</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="12">
         <v>13732282796</v>
@@ -1368,16 +1365,16 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="12">
         <v>15158043067</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="12">
         <v>13516870803</v>
@@ -1385,16 +1382,16 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:5">
       <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="12">
         <v>18267103936</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12">
         <v>13750808250</v>
@@ -1402,46 +1399,46 @@
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:5">
       <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="12">
         <v>15168249456</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="12"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:5">
       <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="C10" s="12">
         <v>18767101793</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="12"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:5">
       <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="C11" s="12">
         <v>13516874271</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="12">
         <v>13750860700</v>
@@ -1449,16 +1446,16 @@
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:5">
       <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="C12" s="12">
         <v>13968116636</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="12">
         <v>13606531892</v>
@@ -1466,31 +1463,31 @@
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:5">
       <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="12">
         <v>18814839918</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:5">
       <c r="A14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="12">
         <v>18868860268</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="12">
         <v>13858000048</v>
@@ -1498,31 +1495,31 @@
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:5">
       <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="12">
         <v>13819168833</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="12"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:5">
       <c r="A16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="12">
         <v>15988175248</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="12">
         <v>13588330733</v>
@@ -1530,61 +1527,61 @@
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:5">
       <c r="A17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="C17" s="12">
         <v>15967126814</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="12"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:5">
       <c r="A18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="C18" s="12">
         <v>13588330676</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:5">
       <c r="A19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="C19" s="12">
         <v>13575716745</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="12"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:5">
       <c r="A20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="C20" s="12">
         <v>13588013877</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="12">
         <v>15925678102</v>
@@ -1592,31 +1589,31 @@
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:5">
       <c r="A21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="C21" s="12">
         <v>13819106991</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="12"/>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:5">
       <c r="A22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="C22" s="12">
         <v>13516871332</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="12"/>
     </row>
